--- a/preturi minime.xlsx
+++ b/preturi minime.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\Calculator pret minim pe zona\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\Calculator-pret-minim-pe-zona\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D921E4D1-3538-439A-A986-5A2CC8C5EA43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66998C92-8040-4B18-AEA7-F026D18FCC09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1965" uniqueCount="47">
   <si>
     <t>Neamț</t>
   </si>
@@ -157,6 +157,12 @@
   <si>
     <t>construcție</t>
   </si>
+  <si>
+    <t>Tămășeni</t>
+  </si>
+  <si>
+    <t>Adjudeni</t>
+  </si>
 </sst>
 </file>
 
@@ -189,12 +195,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -209,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -238,6 +250,13 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C5A6265-6D8F-42C5-B6AE-21288BA91ADD}">
-  <dimension ref="A1:L3188"/>
+  <dimension ref="A1:M3188"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -555,9 +574,10 @@
     <col min="5" max="8" width="8.88671875" style="9"/>
     <col min="9" max="9" width="15" style="9" customWidth="1"/>
     <col min="10" max="10" width="8.88671875" style="9"/>
+    <col min="13" max="13" width="35.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -595,7 +615,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -627,7 +647,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -659,7 +679,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -695,19 +715,110 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="6"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="6"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="6"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="9">
+        <v>5.3</v>
+      </c>
+      <c r="F5" s="9">
+        <v>4.8</v>
+      </c>
+      <c r="G5" s="9">
+        <v>4.2</v>
+      </c>
+      <c r="H5" s="9">
+        <v>3.2</v>
+      </c>
+      <c r="I5" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="J5" s="9">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="9">
+        <v>6.6</v>
+      </c>
+      <c r="F6" s="9">
+        <v>6</v>
+      </c>
+      <c r="G6" s="9">
+        <v>5.3</v>
+      </c>
+      <c r="H6" s="9">
+        <v>4</v>
+      </c>
+      <c r="I6" s="9">
+        <v>3.3</v>
+      </c>
+      <c r="J6" s="9">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="L7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8" s="6"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B9" s="6"/>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.3">
@@ -3813,10 +3924,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F859D52-447C-41CA-824F-DD6819DEAA55}">
-  <dimension ref="A1:I121"/>
+  <dimension ref="A1:I241"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A167" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C181" sqref="C181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7341,6 +7452,3486 @@
         <v>25</v>
       </c>
     </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A122" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B122" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C122" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D122" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E122" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F122" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G122" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H122" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I122" s="12">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A123" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B123" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C123" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D123" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E123" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F123" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G123" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H123" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I123" s="12">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A124" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B124" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C124" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D124" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E124" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F124" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G124" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H124" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I124" s="12">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A125" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B125" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C125" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D125" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E125" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F125" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G125" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H125" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I125" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A126" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B126" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C126" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D126" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E126" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F126" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G126" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H126" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I126" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A127" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B127" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C127" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D127" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E127" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F127" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G127" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H127" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I127" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A128" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B128" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C128" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D128" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E128" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F128" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G128" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H128" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I128" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A129" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B129" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C129" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D129" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E129" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F129" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G129" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H129" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I129" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A130" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B130" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C130" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D130" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E130" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F130" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G130" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H130" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I130" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A131" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B131" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C131" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D131" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E131" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F131" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G131" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H131" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I131" s="12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A132" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B132" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C132" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D132" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E132" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F132" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G132" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H132" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I132" s="12">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A133" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B133" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C133" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D133" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E133" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F133" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G133" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H133" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I133" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A134" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B134" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C134" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D134" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E134" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F134" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G134" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H134" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I134" s="12">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A135" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B135" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C135" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D135" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E135" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F135" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G135" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H135" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I135" s="12">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A136" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B136" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C136" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D136" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E136" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F136" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G136" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H136" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I136" s="12">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A137" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B137" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C137" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D137" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E137" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F137" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G137" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H137" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I137" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A138" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B138" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C138" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D138" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E138" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F138" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G138" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H138" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I138" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A139" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B139" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C139" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D139" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E139" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F139" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G139" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H139" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I139" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A140" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B140" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C140" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D140" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E140" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F140" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G140" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H140" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I140" s="12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A141" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B141" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C141" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D141" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E141" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F141" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G141" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H141" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I141" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A142" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B142" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C142" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D142" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E142" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F142" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G142" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H142" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I142" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A143" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B143" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C143" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D143" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E143" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F143" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G143" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H143" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I143" s="12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A144" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B144" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C144" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D144" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E144" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F144" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G144" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H144" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I144" s="12">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A145" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B145" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C145" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D145" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E145" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F145" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G145" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H145" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I145" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A146" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B146" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C146" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D146" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E146" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F146" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G146" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H146" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I146" s="12">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A147" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B147" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C147" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D147" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E147" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F147" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G147" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H147" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I147" s="12">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A148" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B148" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C148" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D148" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E148" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F148" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G148" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H148" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I148" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A149" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B149" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C149" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D149" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E149" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F149" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G149" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H149" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I149" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A150" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B150" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C150" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D150" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E150" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F150" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G150" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H150" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I150" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A151" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B151" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C151" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D151" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E151" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F151" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G151" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H151" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I151" s="12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A152" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B152" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C152" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D152" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E152" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F152" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G152" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H152" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I152" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A153" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B153" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C153" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D153" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E153" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F153" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G153" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H153" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I153" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A154" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B154" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C154" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D154" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E154" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F154" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G154" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H154" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I154" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A155" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B155" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C155" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D155" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E155" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F155" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G155" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H155" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I155" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A156" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B156" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C156" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D156" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E156" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F156" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G156" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H156" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I156" s="12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A157" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B157" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C157" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D157" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E157" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F157" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G157" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H157" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I157" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A158" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B158" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C158" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D158" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E158" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F158" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G158" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H158" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I158" s="12">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A159" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B159" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C159" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D159" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E159" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F159" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G159" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H159" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I159" s="12">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A160" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B160" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C160" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D160" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E160" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F160" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G160" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H160" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I160" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A161" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B161" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C161" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D161" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E161" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F161" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G161" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H161" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I161" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A162" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B162" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C162" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D162" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E162" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F162" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G162" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H162" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I162" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A163" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B163" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C163" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D163" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E163" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F163" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G163" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H163" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I163" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A164" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B164" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C164" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D164" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E164" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F164" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G164" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H164" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I164" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A165" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B165" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C165" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D165" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E165" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F165" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G165" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H165" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I165" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A166" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B166" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C166" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D166" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E166" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F166" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G166" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H166" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I166" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A167" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B167" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C167" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D167" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E167" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F167" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G167" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H167" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I167" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A168" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B168" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C168" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D168" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E168" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F168" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G168" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H168" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I168" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A169" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B169" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C169" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D169" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E169" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F169" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G169" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H169" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I169" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A170" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B170" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C170" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D170" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E170" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F170" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G170" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H170" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I170" s="12">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A171" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B171" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C171" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D171" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E171" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F171" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G171" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H171" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I171" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A172" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B172" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C172" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D172" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E172" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F172" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G172" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H172" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I172" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A173" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B173" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C173" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D173" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E173" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F173" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G173" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H173" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I173" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A174" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B174" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C174" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D174" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E174" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F174" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G174" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H174" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I174" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A175" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B175" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C175" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D175" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E175" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F175" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G175" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H175" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I175" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A176" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B176" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C176" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D176" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E176" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F176" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G176" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H176" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I176" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A177" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B177" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C177" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D177" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E177" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F177" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G177" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H177" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I177" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A178" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B178" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C178" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D178" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E178" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F178" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G178" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H178" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I178" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A179" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B179" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C179" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D179" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E179" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F179" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G179" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H179" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I179" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A180" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B180" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C180" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D180" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E180" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F180" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G180" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H180" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I180" s="12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A181" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B181" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C181" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D181" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E181" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F181" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G181" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H181" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I181" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A182" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B182" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C182" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D182" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E182" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F182" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G182" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H182" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I182" s="12">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A183" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B183" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C183" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D183" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E183" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F183" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G183" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H183" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I183" s="12">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A184" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B184" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C184" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D184" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E184" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F184" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G184" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H184" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I184" s="12">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A185" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B185" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C185" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D185" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E185" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F185" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G185" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H185" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I185" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A186" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B186" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C186" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D186" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E186" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F186" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G186" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H186" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I186" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A187" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B187" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C187" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D187" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E187" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F187" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G187" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H187" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I187" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A188" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B188" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C188" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D188" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E188" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F188" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G188" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H188" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I188" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A189" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B189" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C189" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D189" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E189" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F189" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G189" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H189" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I189" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A190" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B190" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C190" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D190" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E190" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F190" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G190" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H190" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I190" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A191" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B191" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C191" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D191" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E191" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F191" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G191" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H191" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I191" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A192" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B192" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C192" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D192" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E192" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F192" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G192" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H192" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I192" s="12">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A193" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B193" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C193" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D193" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E193" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F193" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G193" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H193" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I193" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A194" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B194" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C194" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D194" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E194" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F194" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G194" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H194" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I194" s="12">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A195" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B195" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C195" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D195" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E195" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F195" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G195" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H195" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I195" s="12">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A196" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B196" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C196" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D196" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E196" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F196" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G196" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H196" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I196" s="12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A197" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B197" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C197" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D197" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E197" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F197" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G197" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H197" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I197" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A198" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B198" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C198" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D198" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E198" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F198" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G198" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H198" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I198" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A199" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B199" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C199" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D199" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E199" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F199" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G199" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H199" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I199" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A200" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B200" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C200" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D200" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E200" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F200" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G200" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H200" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I200" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A201" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B201" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C201" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D201" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E201" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F201" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G201" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H201" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I201" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A202" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B202" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C202" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D202" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E202" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F202" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G202" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H202" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I202" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A203" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B203" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C203" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D203" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E203" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F203" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G203" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H203" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I203" s="12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A204" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B204" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C204" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D204" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E204" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F204" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G204" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H204" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I204" s="12">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A205" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B205" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C205" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D205" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E205" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F205" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G205" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H205" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I205" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A206" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B206" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C206" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D206" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E206" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F206" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G206" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H206" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I206" s="12">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A207" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B207" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C207" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D207" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E207" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F207" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G207" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H207" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I207" s="12">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A208" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B208" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C208" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D208" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E208" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F208" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G208" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H208" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I208" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A209" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B209" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C209" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D209" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E209" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F209" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G209" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H209" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I209" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A210" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B210" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C210" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D210" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E210" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F210" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G210" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H210" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I210" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A211" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B211" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C211" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D211" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E211" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F211" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G211" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H211" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I211" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A212" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B212" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C212" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D212" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E212" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F212" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G212" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H212" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I212" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A213" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B213" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C213" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D213" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E213" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F213" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G213" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H213" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I213" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A214" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B214" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C214" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D214" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E214" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F214" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G214" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H214" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I214" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A215" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B215" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C215" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D215" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E215" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F215" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G215" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H215" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I215" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A216" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B216" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C216" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D216" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E216" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F216" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G216" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H216" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I216" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A217" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B217" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C217" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D217" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E217" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F217" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G217" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H217" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I217" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A218" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B218" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C218" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D218" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E218" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F218" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G218" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H218" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I218" s="12">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A219" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B219" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C219" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D219" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E219" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F219" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G219" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H219" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I219" s="12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A220" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B220" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C220" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D220" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E220" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F220" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G220" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H220" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I220" s="12">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A221" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B221" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C221" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D221" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E221" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F221" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G221" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H221" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I221" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A222" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B222" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C222" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D222" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E222" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F222" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G222" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H222" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I222" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A223" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B223" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C223" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D223" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E223" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F223" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G223" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H223" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I223" s="12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A224" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B224" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C224" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D224" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E224" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F224" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G224" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H224" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I224" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A225" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B225" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C225" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D225" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E225" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F225" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G225" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H225" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I225" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A226" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B226" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C226" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D226" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E226" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F226" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G226" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H226" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I226" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A227" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B227" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C227" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D227" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E227" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F227" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G227" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H227" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I227" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A228" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B228" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C228" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D228" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E228" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F228" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G228" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H228" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I228" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A229" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B229" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C229" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D229" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E229" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F229" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G229" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H229" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I229" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A230" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B230" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C230" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D230" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E230" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F230" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G230" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H230" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I230" s="12">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A231" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B231" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C231" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D231" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E231" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F231" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G231" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H231" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I231" s="12">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A232" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B232" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C232" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D232" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E232" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F232" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G232" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H232" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I232" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A233" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B233" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C233" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D233" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E233" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F233" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G233" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H233" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I233" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A234" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B234" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C234" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D234" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E234" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F234" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G234" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H234" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I234" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A235" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B235" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C235" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D235" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E235" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F235" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G235" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H235" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I235" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A236" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B236" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C236" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D236" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E236" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F236" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G236" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H236" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I236" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A237" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B237" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C237" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D237" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E237" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F237" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G237" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H237" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I237" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A238" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B238" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C238" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D238" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E238" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F238" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G238" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H238" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I238" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A239" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B239" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C239" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D239" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E239" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F239" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G239" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H239" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I239" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A240" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B240" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C240" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D240" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E240" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F240" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G240" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H240" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I240" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A241" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B241" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C241" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D241" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E241" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F241" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G241" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H241" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I241" s="12">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:J121">
     <sortCondition ref="J1:J121"/>
